--- a/experiments/droptc/sentence/DroPTC-all-mpnet-base-v2-sentence/freeze/ce-uniform/14298463/prediction.xlsx
+++ b/experiments/droptc/sentence/DroPTC-all-mpnet-base-v2-sentence/freeze/ce-uniform/14298463/prediction.xlsx
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9770373106002808</v>
+        <v>0.973075807094574</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9768452644348145</v>
+        <v>0.9728912711143494</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9754829406738281</v>
+        <v>0.9713510274887085</v>
       </c>
     </row>
     <row r="5">
@@ -574,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6635446548461914</v>
+        <v>0.6846306920051575</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9782359600067139</v>
+        <v>0.9744447469711304</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9790734052658081</v>
+        <v>0.9754035472869873</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9789336919784546</v>
+        <v>0.975226104259491</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9784409999847412</v>
+        <v>0.9747090339660645</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9789336919784546</v>
+        <v>0.975226104259491</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5410065650939941</v>
+        <v>0.5598785281181335</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9805713891983032</v>
+        <v>0.9770573377609253</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9191896915435791</v>
+        <v>0.9137548804283142</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9779047966003418</v>
+        <v>0.9740842580795288</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9779784083366394</v>
+        <v>0.9741446375846863</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9782505631446838</v>
+        <v>0.974477231502533</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9783022403717041</v>
+        <v>0.9745293259620667</v>
       </c>
     </row>
     <row r="18">
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2593628466129303</v>
+        <v>0.2614282369613647</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.979566752910614</v>
+        <v>0.9759355187416077</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9799021482467651</v>
+        <v>0.9763374924659729</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9757803678512573</v>
+        <v>0.9716814756393433</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9780268669128418</v>
+        <v>0.97420334815979</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9795602560043335</v>
+        <v>0.9759553074836731</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9800124764442444</v>
+        <v>0.9764559268951416</v>
       </c>
     </row>
     <row r="25">
@@ -1134,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.6613490581512451</v>
+        <v>0.6829658150672913</v>
       </c>
     </row>
     <row r="26">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2530313432216644</v>
+        <v>0.2540223896503448</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.977071225643158</v>
+        <v>0.9731222987174988</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9768452644348145</v>
+        <v>0.9728912711143494</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9758811593055725</v>
+        <v>0.9717935919761658</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9782448410987854</v>
+        <v>0.9744611382484436</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9768873453140259</v>
+        <v>0.9729428291320801</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9791842699050903</v>
+        <v>0.9755182266235352</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8792654275894165</v>
+        <v>0.8857550621032715</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9196898341178894</v>
+        <v>0.9142256379127502</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9148210287094116</v>
+        <v>0.9090980887413025</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9791188836097717</v>
+        <v>0.9754486680030823</v>
       </c>
     </row>
     <row r="37">
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9163548350334167</v>
+        <v>0.9106979370117188</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9802991151809692</v>
+        <v>0.9767596125602722</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9161801934242249</v>
+        <v>0.9102985858917236</v>
       </c>
     </row>
     <row r="40">
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.8784103393554688</v>
+        <v>0.886163592338562</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9803091287612915</v>
+        <v>0.9767819046974182</v>
       </c>
     </row>
     <row r="42">
@@ -1610,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8842368125915527</v>
+        <v>0.8716340661048889</v>
       </c>
     </row>
     <row r="43">
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.8839476108551025</v>
+        <v>0.8908616304397583</v>
       </c>
     </row>
     <row r="44">
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9171165227890015</v>
+        <v>0.911618709564209</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.8865824937820435</v>
+        <v>0.8938645720481873</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.8778215050697327</v>
+        <v>0.8840237259864807</v>
       </c>
     </row>
     <row r="47">
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.6463314294815063</v>
+        <v>0.6677845120429993</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.875737190246582</v>
+        <v>0.8819469809532166</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9800574779510498</v>
+        <v>0.9764919877052307</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8809061050415039</v>
+        <v>0.8874781131744385</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.87618488073349</v>
+        <v>0.8821817636489868</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9766818284988403</v>
+        <v>0.9727340936660767</v>
       </c>
     </row>
     <row r="53">
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.8809061050415039</v>
+        <v>0.8874781131744385</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.8811389207839966</v>
+        <v>0.8878029584884644</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9790250658988953</v>
+        <v>0.9753503799438477</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9793053269386292</v>
+        <v>0.9756312370300293</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9805190563201904</v>
+        <v>0.9770054817199707</v>
       </c>
     </row>
     <row r="58">
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9147912859916687</v>
+        <v>0.9090736508369446</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.980205774307251</v>
+        <v>0.9766602516174316</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9785923361778259</v>
+        <v>0.9748274683952332</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9791802763938904</v>
+        <v>0.9755094647407532</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9801339507102966</v>
+        <v>0.9765758514404297</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9172386527061462</v>
+        <v>0.9117700457572937</v>
       </c>
     </row>
     <row r="64">
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.5014301538467407</v>
+        <v>0.436794638633728</v>
       </c>
     </row>
     <row r="65">
@@ -2254,7 +2254,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9148491024971008</v>
+        <v>0.9091667532920837</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9148491024971008</v>
+        <v>0.9091667532920837</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9172590970993042</v>
+        <v>0.9117691516876221</v>
       </c>
     </row>
     <row r="68">
@@ -2338,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9148491024971008</v>
+        <v>0.9091667532920837</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.7674803137779236</v>
+        <v>0.6932588219642639</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9790555834770203</v>
+        <v>0.9753901362419128</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9168661236763</v>
+        <v>0.9113484621047974</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.974234938621521</v>
+        <v>0.9699569940567017</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9163093566894531</v>
+        <v>0.9106647372245789</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9780410528182983</v>
+        <v>0.9742177128791809</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9782301187515259</v>
+        <v>0.9744521975517273</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9163093566894531</v>
+        <v>0.9106647372245789</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9768967032432556</v>
+        <v>0.9729415774345398</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9163093566894531</v>
+        <v>0.9106647372245789</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9795621633529663</v>
+        <v>0.9759417772293091</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9163613319396973</v>
+        <v>0.9107130765914917</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9769111275672913</v>
+        <v>0.9729582667350769</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9163613319396973</v>
+        <v>0.9107130765914917</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.97065269947052</v>
+        <v>0.9658646583557129</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.97065269947052</v>
+        <v>0.9658646583557129</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9805182218551636</v>
+        <v>0.9769954681396484</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9171923398971558</v>
+        <v>0.9115992188453674</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.979514479637146</v>
+        <v>0.9759031534194946</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9163199663162231</v>
+        <v>0.9106754660606384</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.976887583732605</v>
+        <v>0.9729229807853699</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9780228734016418</v>
+        <v>0.9741854667663574</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9780168533325195</v>
+        <v>0.9741805195808411</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9780380725860596</v>
+        <v>0.9742031693458557</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9780142307281494</v>
+        <v>0.974174976348877</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9780122041702271</v>
+        <v>0.9741743206977844</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9780313372612</v>
+        <v>0.9741941094398499</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9806195497512817</v>
+        <v>0.9771307706832886</v>
       </c>
     </row>
     <row r="97">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2526379525661469</v>
+        <v>0.2015591561794281</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9799638390541077</v>
+        <v>0.9763782024383545</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9770076274871826</v>
+        <v>0.9730552434921265</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9758481979370117</v>
+        <v>0.971758246421814</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9796328544616699</v>
+        <v>0.9760287404060364</v>
       </c>
     </row>
     <row r="102">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.6601183414459229</v>
+        <v>0.681425154209137</v>
       </c>
     </row>
     <row r="103">
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.8806297779083252</v>
+        <v>0.8863136768341064</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9782238602638245</v>
+        <v>0.9744498729705811</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.7781270742416382</v>
+        <v>0.7044637799263</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9758771657943726</v>
+        <v>0.9717963337898254</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.8847761750221252</v>
+        <v>0.89187091588974</v>
       </c>
     </row>
     <row r="108">
@@ -3458,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.6462112665176392</v>
+        <v>0.6660022735595703</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9770950078964233</v>
+        <v>0.9731451869010925</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9768452644348145</v>
+        <v>0.9728912711143494</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.8792986869812012</v>
+        <v>0.8857499957084656</v>
       </c>
     </row>
     <row r="112">
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.883936882019043</v>
+        <v>0.8908246755599976</v>
       </c>
     </row>
     <row r="113">
@@ -3598,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9183197021484375</v>
+        <v>0.9127540588378906</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9801499843597412</v>
+        <v>0.9765963554382324</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9182784557342529</v>
+        <v>0.912766695022583</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9705743193626404</v>
+        <v>0.9657937288284302</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9738837480545044</v>
+        <v>0.9695284366607666</v>
       </c>
     </row>
     <row r="118">
@@ -3738,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.7237582802772522</v>
+        <v>0.6571601033210754</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9788813591003418</v>
+        <v>0.9751694798469543</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9768452644348145</v>
+        <v>0.9728912711143494</v>
       </c>
     </row>
     <row r="121">
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.7675134539604187</v>
+        <v>0.6935694217681885</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9800798296928406</v>
+        <v>0.976503312587738</v>
       </c>
     </row>
     <row r="123">
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.7675134539604187</v>
+        <v>0.6935694217681885</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9800798296928406</v>
+        <v>0.976503312587738</v>
       </c>
     </row>
     <row r="125">
@@ -3934,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.7675134539604187</v>
+        <v>0.6935694217681885</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.979834258556366</v>
+        <v>0.9762309193611145</v>
       </c>
     </row>
     <row r="127">
@@ -3990,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9771862030029297</v>
+        <v>0.9732567667961121</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9768452644348145</v>
+        <v>0.9728912711143494</v>
       </c>
     </row>
     <row r="129">
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9789522886276245</v>
+        <v>0.9752838015556335</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9757485389709473</v>
+        <v>0.9716489911079407</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9738374948501587</v>
+        <v>0.9694756269454956</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.8703750967979431</v>
+        <v>0.8770833015441895</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9782757759094238</v>
+        <v>0.9745069146156311</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9779919981956482</v>
+        <v>0.9741581082344055</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9790931940078735</v>
+        <v>0.9754153490066528</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9700409770011902</v>
+        <v>0.9652458429336548</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9782600402832031</v>
+        <v>0.974482536315918</v>
       </c>
     </row>
     <row r="138">
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9738683700561523</v>
+        <v>0.9695307612419128</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9738792181015015</v>
+        <v>0.9695379137992859</v>
       </c>
     </row>
     <row r="140">
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9768691658973694</v>
+        <v>0.9729074239730835</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>0.5599307417869568</v>
+        <v>0.6063199639320374</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9768452644348145</v>
+        <v>0.9728912711143494</v>
       </c>
     </row>
     <row r="143">
@@ -4438,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9148514866828918</v>
+        <v>0.9091194868087769</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9785962104797363</v>
+        <v>0.9748561382293701</v>
       </c>
     </row>
     <row r="145">
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9148514866828918</v>
+        <v>0.9091194868087769</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9705557227134705</v>
+        <v>0.9658059477806091</v>
       </c>
     </row>
     <row r="147">
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.7674803137779236</v>
+        <v>0.6932588219642639</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9770129919052124</v>
+        <v>0.9730896353721619</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9162361025810242</v>
+        <v>0.9106119275093079</v>
       </c>
     </row>
     <row r="150">
@@ -4634,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.7700405716896057</v>
+        <v>0.6949602961540222</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9768452644348145</v>
+        <v>0.9728912711143494</v>
       </c>
     </row>
     <row r="152">
@@ -4690,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.6358621716499329</v>
+        <v>0.6582749485969543</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9803091287612915</v>
+        <v>0.9767683744430542</v>
       </c>
     </row>
     <row r="154">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.6508496403694153</v>
+        <v>0.6709930300712585</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9799603819847107</v>
+        <v>0.9763794541358948</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.6509210467338562</v>
+        <v>0.6711840033531189</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.978581964969635</v>
+        <v>0.974823534488678</v>
       </c>
     </row>
     <row r="158">
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.6509302258491516</v>
+        <v>0.6711790561676025</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9789332151412964</v>
+        <v>0.9752240180969238</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9176755547523499</v>
+        <v>0.9121144413948059</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9771435260772705</v>
+        <v>0.9731974601745605</v>
       </c>
     </row>
     <row r="162">
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9709435105323792</v>
+        <v>0.9656968712806702</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9738767147064209</v>
+        <v>0.9695377945899963</v>
       </c>
     </row>
     <row r="164">
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9147451519966125</v>
+        <v>0.9090487360954285</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9805452823638916</v>
+        <v>0.9770324230194092</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9707024693489075</v>
+        <v>0.9659279584884644</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.8718450665473938</v>
+        <v>0.8781492114067078</v>
       </c>
     </row>
     <row r="168">
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9181187748908997</v>
+        <v>0.9125878810882568</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9768452644348145</v>
+        <v>0.9728912711143494</v>
       </c>
     </row>
     <row r="170">
@@ -5194,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.8718450665473938</v>
+        <v>0.8781492114067078</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.917228639125824</v>
+        <v>0.9116807579994202</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9768452644348145</v>
+        <v>0.9728912711143494</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9738385081291199</v>
+        <v>0.9695013761520386</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9738547801971436</v>
+        <v>0.9695088863372803</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9738385081291199</v>
+        <v>0.9695013761520386</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9738385081291199</v>
+        <v>0.9695013761520386</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9738547801971436</v>
+        <v>0.9695088863372803</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9770423173904419</v>
+        <v>0.9731048941612244</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9742637872695923</v>
+        <v>0.9699963331222534</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9782699346542358</v>
+        <v>0.9744841456413269</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9797528982162476</v>
+        <v>0.9761511087417603</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9790830016136169</v>
+        <v>0.9754089713096619</v>
       </c>
     </row>
     <row r="183">
@@ -5558,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.775668203830719</v>
+        <v>0.7018030285835266</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.980048656463623</v>
+        <v>0.9764926433563232</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9803178310394287</v>
+        <v>0.9767816662788391</v>
       </c>
     </row>
     <row r="186">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9793509244918823</v>
+        <v>0.9756941199302673</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9789034128189087</v>
+        <v>0.9751936793327332</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9770931005477905</v>
+        <v>0.9731554985046387</v>
       </c>
     </row>
     <row r="189">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9779952168464661</v>
+        <v>0.9741536974906921</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9780077338218689</v>
+        <v>0.9741755127906799</v>
       </c>
     </row>
     <row r="191">
@@ -5775,14 +5775,14 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>0.2417515367269516</v>
+        <v>0.199798971414566</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9791395664215088</v>
+        <v>0.9754608273506165</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.978300154209137</v>
+        <v>0.9745312333106995</v>
       </c>
     </row>
     <row r="194">
@@ -5866,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.7675805687904358</v>
+        <v>0.6933659911155701</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.8804908394813538</v>
+        <v>0.8869340419769287</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9800024032592773</v>
+        <v>0.9764376282691956</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9789052605628967</v>
+        <v>0.9751962423324585</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9792854189872742</v>
+        <v>0.9756308794021606</v>
       </c>
     </row>
     <row r="199">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9795745015144348</v>
+        <v>0.9759688973426819</v>
       </c>
     </row>
     <row r="200">
@@ -6034,7 +6034,7 @@
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.916043221950531</v>
+        <v>0.9105434417724609</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9795901775360107</v>
+        <v>0.975976288318634</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9796167612075806</v>
+        <v>0.9760149121284485</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9782747030258179</v>
+        <v>0.974498987197876</v>
       </c>
     </row>
     <row r="204">
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.8720665574073792</v>
+        <v>0.8783613443374634</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9796898365020752</v>
+        <v>0.9760676026344299</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9738317131996155</v>
+        <v>0.9694808721542358</v>
       </c>
     </row>
     <row r="207">
@@ -6230,7 +6230,7 @@
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.2510679364204407</v>
+        <v>0.2003779858350754</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.974239706993103</v>
+        <v>0.9699503779411316</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>0.2754824757575989</v>
+        <v>0.2726386189460754</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9782077670097351</v>
+        <v>0.9744301438331604</v>
       </c>
     </row>
   </sheetData>
